--- a/biology/Zoologie/Ischyrosaurus/Ischyrosaurus.xlsx
+++ b/biology/Zoologie/Ischyrosaurus/Ischyrosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ischyrosaurus (signifiant « lézard fort ») est un nom informel donné à un genre de dinosaures sauropodes du Jurassique supérieur retrouvé en Angleterre. L'espèce-type, Ischyrosaurus manseli, a été décrite par Richard Lydekker en 1888. Il a longtemps été un synonyme du Pelorosaurus.
-Le genre est basé sur l'holotype BMNH R41626, retrouvé en 1868 dans la formation géologique des argiles de Kimmeridge dans le Dorset, datée du Kimméridgien[1].
+Le genre est basé sur l'holotype BMNH R41626, retrouvé en 1868 dans la formation géologique des argiles de Kimmeridge dans le Dorset, datée du Kimméridgien.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décrit brièvement par John Hulke en 1869[1], ce dernier l'a nommé en 1874[2].
-Comme plusieurs restes de sauropodes du Jurassique supérieur et du Crétacé inférieur d'Europe, il est associé à la branche des Ornithopsis et Pelorosaurus. En 1888, Lydekker le décrit sous le nom de Ornithopsis manseli[3] puis, en 1909, Friedrich von Huene le nomme Pelorosaurus manseli[4],[5],[6].
-En 2004, Upchurch et al. classe le genre nomen dubium[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrit brièvement par John Hulke en 1869, ce dernier l'a nommé en 1874.
+Comme plusieurs restes de sauropodes du Jurassique supérieur et du Crétacé inférieur d'Europe, il est associé à la branche des Ornithopsis et Pelorosaurus. En 1888, Lydekker le décrit sous le nom de Ornithopsis manseli puis, en 1909, Friedrich von Huene le nomme Pelorosaurus manseli.
+En 2004, Upchurch et al. classe le genre nomen dubium.
 </t>
         </is>
       </c>
